--- a/NC_NR_VC_VR/DEG_Count.xlsx
+++ b/NC_NR_VC_VR/DEG_Count.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="460" windowWidth="14400" windowHeight="12040" tabRatio="500"/>
+    <workbookView xWindow="8280" yWindow="460" windowWidth="17320" windowHeight="12040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DESeq2-m1</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>edgeR</t>
+  </si>
+  <si>
+    <t>edgeR-btwnLane</t>
+  </si>
+  <si>
+    <t>edgeR-Virus</t>
+  </si>
+  <si>
+    <t>edgeR-Diet</t>
+  </si>
+  <si>
+    <t>edgeR-btwnLane-Virus</t>
+  </si>
+  <si>
+    <t>edgeR-btwnLane-Diet</t>
   </si>
 </sst>
 </file>
@@ -409,15 +424,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -430,8 +450,23 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -444,8 +479,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -458,8 +496,11 @@
       <c r="E3">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -472,8 +513,11 @@
       <c r="E4">
         <v>189</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -486,8 +530,11 @@
       <c r="E5">
         <v>535</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -500,8 +547,11 @@
       <c r="E6">
         <v>797</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -514,21 +564,36 @@
       <c r="E7">
         <v>682</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
         <v>1919</v>
+      </c>
+      <c r="H9">
+        <v>1721</v>
+      </c>
+      <c r="J9">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/NC_NR_VC_VR/DEG_Count.xlsx
+++ b/NC_NR_VC_VR/DEG_Count.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="460" windowWidth="17320" windowHeight="12040" tabRatio="500"/>
+    <workbookView xWindow="2100" yWindow="460" windowWidth="33260" windowHeight="12040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>DESeq2-m1</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>edgeR-btwnLane-Diet</t>
+  </si>
+  <si>
+    <t>limmaVoom</t>
+  </si>
+  <si>
+    <t>limmaVoom-Virus</t>
+  </si>
+  <si>
+    <t>limmaVoom-Diet</t>
   </si>
 </sst>
 </file>
@@ -116,12 +125,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,9 +155,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -424,20 +440,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -465,9 +485,18 @@
       <c r="J1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -482,9 +511,12 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3">
@@ -499,9 +531,12 @@
       <c r="F3">
         <v>327</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4">
@@ -516,9 +551,12 @@
       <c r="F4">
         <v>166</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="K4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -533,9 +571,13 @@
       <c r="F5">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K5">
+        <f>47+108</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6">
@@ -550,9 +592,13 @@
       <c r="F6">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="K6">
+        <f>139+219</f>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7">
@@ -567,9 +613,13 @@
       <c r="F7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="K7">
+        <f>140+91</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8">
@@ -581,9 +631,12 @@
       <c r="I8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9">
@@ -594,6 +647,9 @@
       </c>
       <c r="J9">
         <v>178</v>
+      </c>
+      <c r="M9">
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
